--- a/cities.xlsx
+++ b/cities.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -10,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Красноярск</t>
   </si>
@@ -64,13 +64,16 @@
   </si>
   <si>
     <t>Шарыпово</t>
+  </si>
+  <si>
+    <t>Еловое</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,26 +376,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -408,7 +411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -416,7 +419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -424,7 +427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -432,7 +435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -440,7 +443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -448,7 +451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -456,7 +459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -464,7 +467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -472,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -480,7 +483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -488,7 +491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -496,7 +499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -504,7 +507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -512,12 +515,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
